--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Thbs1-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Thbs1-Lrp1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>149.656361</v>
+        <v>2.727484333333333</v>
       </c>
       <c r="H2">
-        <v>448.969083</v>
+        <v>8.182453000000001</v>
       </c>
       <c r="I2">
-        <v>0.5921360794347563</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="J2">
-        <v>0.5921360794347564</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N2">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q2">
-        <v>2569.08041079733</v>
+        <v>5.528925313526444</v>
       </c>
       <c r="R2">
-        <v>23121.72369717597</v>
+        <v>49.760327821738</v>
       </c>
       <c r="S2">
-        <v>0.03318007265848508</v>
+        <v>0.0002042242322569154</v>
       </c>
       <c r="T2">
-        <v>0.03318007265848508</v>
+        <v>0.0002042242322569154</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>149.656361</v>
+        <v>2.727484333333333</v>
       </c>
       <c r="H3">
-        <v>448.969083</v>
+        <v>8.182453000000001</v>
       </c>
       <c r="I3">
-        <v>0.5921360794347563</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="J3">
-        <v>0.5921360794347564</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>769.332916</v>
       </c>
       <c r="O3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q3">
-        <v>38378.52153535955</v>
+        <v>699.4478251692165</v>
       </c>
       <c r="R3">
-        <v>345406.6938182359</v>
+        <v>6295.030426522948</v>
       </c>
       <c r="S3">
-        <v>0.4956645684255775</v>
+        <v>0.025835797555356</v>
       </c>
       <c r="T3">
-        <v>0.4956645684255776</v>
+        <v>0.025835797555356</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>149.656361</v>
+        <v>2.727484333333333</v>
       </c>
       <c r="H4">
-        <v>448.969083</v>
+        <v>8.182453000000001</v>
       </c>
       <c r="I4">
-        <v>0.5921360794347563</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="J4">
-        <v>0.5921360794347564</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N4">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q4">
-        <v>4900.555707383974</v>
+        <v>133.2110594416712</v>
       </c>
       <c r="R4">
-        <v>44105.00136645577</v>
+        <v>1198.899534975041</v>
       </c>
       <c r="S4">
-        <v>0.06329143835069367</v>
+        <v>0.004920472750110972</v>
       </c>
       <c r="T4">
-        <v>0.06329143835069369</v>
+        <v>0.004920472750110971</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>158.202374</v>
       </c>
       <c r="I5">
-        <v>0.208649853730866</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="J5">
-        <v>0.2086498537308661</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N5">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O5">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P5">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q5">
-        <v>905.2619331140737</v>
+        <v>106.8981527017116</v>
       </c>
       <c r="R5">
-        <v>8147.357398026663</v>
+        <v>962.0833743154039</v>
       </c>
       <c r="S5">
-        <v>0.01169159851495795</v>
+        <v>0.003948541882412449</v>
       </c>
       <c r="T5">
-        <v>0.01169159851495795</v>
+        <v>0.003948541882412449</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>158.202374</v>
       </c>
       <c r="I6">
-        <v>0.208649853730866</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="J6">
-        <v>0.2086498537308661</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>769.332916</v>
       </c>
       <c r="O6">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P6">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q6">
         <v>13523.36596750473</v>
@@ -818,10 +818,10 @@
         <v>121710.2937075426</v>
       </c>
       <c r="S6">
-        <v>0.1746563725694489</v>
+        <v>0.4995182382887766</v>
       </c>
       <c r="T6">
-        <v>0.1746563725694489</v>
+        <v>0.4995182382887765</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>158.202374</v>
       </c>
       <c r="I7">
-        <v>0.208649853730866</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="J7">
-        <v>0.2086498537308661</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N7">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O7">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P7">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q7">
-        <v>1726.799408206454</v>
+        <v>2575.54865841912</v>
       </c>
       <c r="R7">
-        <v>15541.19467385809</v>
+        <v>23179.93792577208</v>
       </c>
       <c r="S7">
-        <v>0.02230188264645917</v>
+        <v>0.09513412057116179</v>
       </c>
       <c r="T7">
-        <v>0.02230188264645917</v>
+        <v>0.09513412057116175</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>50.34932566666667</v>
+        <v>32.63402300000001</v>
       </c>
       <c r="H8">
-        <v>151.047977</v>
+        <v>97.90206900000001</v>
       </c>
       <c r="I8">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="J8">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N8">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O8">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P8">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q8">
-        <v>864.3232095366036</v>
+        <v>66.15292841165267</v>
       </c>
       <c r="R8">
-        <v>7778.908885829432</v>
+        <v>595.3763557048741</v>
       </c>
       <c r="S8">
-        <v>0.01116286853938489</v>
+        <v>0.002443518450749251</v>
       </c>
       <c r="T8">
-        <v>0.01116286853938489</v>
+        <v>0.00244351845074925</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>50.34932566666667</v>
+        <v>32.63402300000001</v>
       </c>
       <c r="H9">
-        <v>151.047977</v>
+        <v>97.90206900000001</v>
       </c>
       <c r="I9">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="J9">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>769.332916</v>
       </c>
       <c r="O9">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P9">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q9">
-        <v>12911.7978445901</v>
+        <v>8368.809358467024</v>
       </c>
       <c r="R9">
-        <v>116206.1806013109</v>
+        <v>75319.28422620321</v>
       </c>
       <c r="S9">
-        <v>0.1667578752438541</v>
+        <v>0.3091222198202048</v>
       </c>
       <c r="T9">
-        <v>0.1667578752438541</v>
+        <v>0.3091222198202048</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>50.34932566666667</v>
+        <v>32.63402300000001</v>
       </c>
       <c r="H10">
-        <v>151.047977</v>
+        <v>97.90206900000001</v>
       </c>
       <c r="I10">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="J10">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N10">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O10">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P10">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q10">
-        <v>1648.708238059575</v>
+        <v>1593.854353092111</v>
       </c>
       <c r="R10">
-        <v>14838.37414253618</v>
+        <v>14344.689177829</v>
       </c>
       <c r="S10">
-        <v>0.02129332305113868</v>
+        <v>0.05887286644897126</v>
       </c>
       <c r="T10">
-        <v>0.02129332305113869</v>
+        <v>0.05887286644897124</v>
       </c>
     </row>
   </sheetData>
